--- a/On-the-job and self-study.xlsx
+++ b/On-the-job and self-study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bppserviceslimited-my.sharepoint.com/personal/mikehoffman_bpp_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leewinstanley/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{7157AA59-4E4D-4E8E-8BE0-52E15756D2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C80B640-BF09-4308-8685-B66F68689850}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9AAD37-07EB-2A4D-9078-78990E084668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" xr2:uid="{87251D64-A23B-4DC4-BF2E-D68309477306}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="11760" xr2:uid="{87251D64-A23B-4DC4-BF2E-D68309477306}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>On-the-job and self-guided learning hours log.</t>
   </si>
@@ -114,6 +113,12 @@
   <si>
     <t>Approved short-course certs</t>
   </si>
+  <si>
+    <t>create python code for dev goal checks</t>
+  </si>
+  <si>
+    <t>error checking on pipelines before handing to engineers</t>
+  </si>
 </sst>
 </file>
 
@@ -122,7 +127,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,7 +355,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -403,6 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -725,24 +731,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF7142F-37B8-4965-8FB1-4A87CBC72984}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -756,8 +762,8 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:8" hidden="1"/>
-    <row r="3" spans="1:8" ht="77.45" customHeight="1">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:9" ht="77.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
@@ -769,7 +775,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
@@ -782,7 +788,7 @@
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
@@ -795,7 +801,7 @@
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="17" t="s">
         <v>7</v>
@@ -803,7 +809,7 @@
       <c r="C6" s="17"/>
       <c r="D6" s="15">
         <f>SUM(B9:E51)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="17" t="s">
@@ -815,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
         <v>9</v>
       </c>
@@ -828,7 +834,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -854,27 +860,41 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="24">
+        <v>45787</v>
+      </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7">
+        <v>7</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="5"/>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="24">
+        <v>45791</v>
+      </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -884,7 +904,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -894,7 +914,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -904,7 +924,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -914,7 +934,7 @@
       <c r="G14" s="9"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -924,7 +944,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -934,7 +954,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -944,7 +964,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -954,7 +974,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -964,7 +984,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -974,7 +994,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -984,7 +1004,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -994,7 +1014,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1004,7 +1024,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1014,7 +1034,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1024,7 +1044,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1034,7 +1054,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1044,7 +1064,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1054,7 +1074,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1064,7 +1084,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1074,7 +1094,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1084,7 +1104,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1094,7 +1114,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1104,7 +1124,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1114,7 +1134,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1124,7 +1144,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1134,7 +1154,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1144,7 +1164,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1154,7 +1174,7 @@
       <c r="G38" s="9"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1164,7 +1184,7 @@
       <c r="G39" s="9"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1174,7 +1194,7 @@
       <c r="G40" s="9"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1184,7 +1204,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1194,7 +1214,7 @@
       <c r="G42" s="9"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1204,7 +1224,7 @@
       <c r="G43" s="9"/>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1214,7 +1234,7 @@
       <c r="G44" s="9"/>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1224,7 +1244,7 @@
       <c r="G45" s="9"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1234,7 +1254,7 @@
       <c r="G46" s="9"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1244,7 +1264,7 @@
       <c r="G47" s="9"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1254,7 +1274,7 @@
       <c r="G48" s="9"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1264,7 +1284,7 @@
       <c r="G49" s="9"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1274,7 +1294,7 @@
       <c r="G50" s="9"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>

--- a/On-the-job and self-study.xlsx
+++ b/On-the-job and self-study.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leewinstanley/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9AAD37-07EB-2A4D-9078-78990E084668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33921E6-8BBD-B143-9B67-88E2B5509ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="11760" xr2:uid="{87251D64-A23B-4DC4-BF2E-D68309477306}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{87251D64-A23B-4DC4-BF2E-D68309477306}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>On-the-job and self-guided learning hours log.</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>error checking on pipelines before handing to engineers</t>
+  </si>
+  <si>
+    <t>learning on our data achitecture for pipelines</t>
   </si>
 </sst>
 </file>
@@ -387,6 +390,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -408,7 +412,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -749,90 +752,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:9" ht="77.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="E5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="15">
         <f>SUM(B9:E51)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6" s="13"/>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="16">
         <f>SUM(F9:H51)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -861,7 +864,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
+      <c r="A9" s="17">
         <v>45787</v>
       </c>
       <c r="B9" s="7"/>
@@ -878,7 +881,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="24">
+      <c r="A10" s="17">
         <v>45791</v>
       </c>
       <c r="B10" s="7"/>
@@ -895,14 +898,21 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="17">
+        <v>45916</v>
+      </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
